--- a/doc/10_基本設計/11_画面系/基本設計-画面レイアウト仕様書.xlsx
+++ b/doc/10_基本設計/11_画面系/基本設計-画面レイアウト仕様書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xylbk\Downloads\cert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xylbk\Documents\certificate-online\doc\10_基本設計\11_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74A0C62-21BE-4398-8014-1E4A9DF1B853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AE3107-F8E7-4428-8604-6D9785E2B7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="657" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,16 @@
     <sheet name="リーダのメインページ" sheetId="13" r:id="rId3"/>
     <sheet name="部下の資格保有の閲覧ページ" sheetId="14" r:id="rId4"/>
     <sheet name="資格種類の閲覧ページ" sheetId="15" r:id="rId5"/>
-    <sheet name="アップデートページ" sheetId="16" r:id="rId6"/>
+    <sheet name="審査のページ" sheetId="18" r:id="rId6"/>
+    <sheet name="アップデートページ" sheetId="16" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">アップデートページ!$A$1:$N$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">アップデートページ!$A$1:$N$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">リーダのメインページ!$A$1:$N$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$X$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">部下の資格保有の閲覧ページ!$A$1:$N$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">社員のメインページ!$A$1:$M$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">審査のページ!$A$1:$N$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">資格種類の閲覧ページ!$A$1:$N$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
   <si>
     <t>プロジェクト：</t>
     <phoneticPr fontId="1"/>
@@ -143,6 +145,10 @@
   </si>
   <si>
     <t>部下の資格保有の閲覧ページ</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>審査のページ</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -573,6 +579,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -583,33 +616,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -843,6 +849,55 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>312964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>643278</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2697E9-9294-3624-9840-1CEE8BBCE36D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299357" y="2871107"/>
+          <a:ext cx="8793957" cy="4463143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1444,7 +1499,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:T51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="F3" sqref="F3:G3"/>
     </sheetView>
   </sheetViews>
@@ -1459,49 +1514,49 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1"/>
     <row r="2" spans="2:13" ht="37.15" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="2:13" ht="38.65" customHeight="1">
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="33"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="35"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="32">
         <f ca="1">TODAY()</f>
-        <v>45027</v>
-      </c>
-      <c r="M3" s="37"/>
+        <v>45043</v>
+      </c>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="8"/>
@@ -1561,14 +1616,14 @@
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="10"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="25"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="34"/>
       <c r="M15" s="11"/>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="10"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="M16" s="11"/>
     </row>
     <row r="17" spans="2:13">
@@ -1582,14 +1637,14 @@
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="10"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="26"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="35"/>
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="10"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="2:13">
@@ -1598,12 +1653,12 @@
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="10"/>
-      <c r="G22" s="28"/>
+      <c r="G22" s="37"/>
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="10"/>
-      <c r="G23" s="26"/>
+      <c r="G23" s="35"/>
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="2:13">
@@ -1732,16 +1787,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G22:G23"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G22:G23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1769,49 +1824,49 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1"/>
     <row r="2" spans="2:13" ht="37.15" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="2:13" ht="38.65" customHeight="1">
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="33"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="35"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="32">
         <f ca="1">TODAY()</f>
-        <v>45027</v>
-      </c>
-      <c r="M3" s="37"/>
+        <v>45043</v>
+      </c>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="8"/>
@@ -1871,14 +1926,14 @@
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="10"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="25"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="34"/>
       <c r="M15" s="11"/>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="10"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="M16" s="11"/>
     </row>
     <row r="17" spans="2:13">
@@ -1892,14 +1947,14 @@
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="10"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="26"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="35"/>
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="10"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="2:13">
@@ -1908,12 +1963,12 @@
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="10"/>
-      <c r="G22" s="28"/>
+      <c r="G22" s="37"/>
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="10"/>
-      <c r="G23" s="26"/>
+      <c r="G23" s="35"/>
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="2:13">
@@ -2080,49 +2135,49 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1"/>
     <row r="2" spans="2:13" ht="37.15" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="2:13" ht="38.65" customHeight="1">
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="33"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="35"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="32">
         <f ca="1">TODAY()</f>
-        <v>45027</v>
-      </c>
-      <c r="M3" s="37"/>
+        <v>45043</v>
+      </c>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="8"/>
@@ -2182,14 +2237,14 @@
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="10"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="25"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="34"/>
       <c r="M15" s="11"/>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="10"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="M16" s="11"/>
     </row>
     <row r="17" spans="2:13">
@@ -2203,14 +2258,14 @@
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="10"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="26"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="35"/>
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="10"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="2:13">
@@ -2219,12 +2274,12 @@
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="10"/>
-      <c r="G22" s="28"/>
+      <c r="G22" s="37"/>
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="10"/>
-      <c r="G23" s="26"/>
+      <c r="G23" s="35"/>
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="2:13">
@@ -2391,49 +2446,49 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1"/>
     <row r="2" spans="2:13" ht="37.15" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="2:13" ht="38.65" customHeight="1">
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="33"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="35"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="32">
         <f ca="1">TODAY()</f>
-        <v>45027</v>
-      </c>
-      <c r="M3" s="37"/>
+        <v>45043</v>
+      </c>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="8"/>
@@ -2493,14 +2548,14 @@
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="10"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="25"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="34"/>
       <c r="M15" s="11"/>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="10"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="M16" s="11"/>
     </row>
     <row r="17" spans="2:13">
@@ -2514,14 +2569,14 @@
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="10"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="26"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="35"/>
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="10"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="2:13">
@@ -2530,12 +2585,12 @@
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="10"/>
-      <c r="G22" s="28"/>
+      <c r="G22" s="37"/>
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="10"/>
-      <c r="G23" s="26"/>
+      <c r="G23" s="35"/>
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="2:13">
@@ -2684,10 +2739,321 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73F2B46-AA6E-4F89-9A91-E213C38A8BED}">
+  <dimension ref="B1:T51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E3" zoomScale="113" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.75" style="2"/>
+    <col min="7" max="7" width="14.75" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="15" thickBot="1"/>
+    <row r="2" spans="2:13" ht="37.15" customHeight="1">
+      <c r="B2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27"/>
+    </row>
+    <row r="3" spans="2:13" ht="38.65" customHeight="1">
+      <c r="B3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="32">
+        <f ca="1">TODAY()</f>
+        <v>45043</v>
+      </c>
+      <c r="M3" s="33"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="8"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="10"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="10"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="10"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="10"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="10"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="10"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="10"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="2:13" ht="25.5">
+      <c r="B12" s="10"/>
+      <c r="G12" s="4"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="10"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="2:13" ht="16.5">
+      <c r="B14" s="10"/>
+      <c r="G14" s="5"/>
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="10"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="34"/>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="10"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="10"/>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="2:13" ht="16.5">
+      <c r="B18" s="10"/>
+      <c r="G18" s="5"/>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="10"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="35"/>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="10"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="10"/>
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="10"/>
+      <c r="G22" s="37"/>
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="10"/>
+      <c r="G23" s="35"/>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="10"/>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="10"/>
+      <c r="G25" s="6"/>
+      <c r="M25" s="11"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="10"/>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="10"/>
+      <c r="M27" s="11"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="10"/>
+      <c r="M28" s="11"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="10"/>
+      <c r="M29" s="11"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="10"/>
+      <c r="M30" s="11"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="10"/>
+      <c r="M31" s="11"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="10"/>
+      <c r="M32" s="11"/>
+    </row>
+    <row r="33" spans="2:20">
+      <c r="B33" s="10"/>
+      <c r="H33"/>
+      <c r="M33" s="11"/>
+    </row>
+    <row r="34" spans="2:20">
+      <c r="B34" s="10"/>
+      <c r="M34" s="11"/>
+    </row>
+    <row r="35" spans="2:20">
+      <c r="B35" s="10"/>
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" spans="2:20">
+      <c r="B36" s="10"/>
+      <c r="M36" s="11"/>
+    </row>
+    <row r="37" spans="2:20">
+      <c r="B37" s="10"/>
+      <c r="M37" s="11"/>
+    </row>
+    <row r="38" spans="2:20">
+      <c r="B38" s="10"/>
+      <c r="M38" s="11"/>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="B39" s="10"/>
+      <c r="M39" s="11"/>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="B40" s="10"/>
+      <c r="M40" s="11"/>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="B41" s="10"/>
+      <c r="M41" s="11"/>
+    </row>
+    <row r="42" spans="2:20">
+      <c r="B42" s="10"/>
+      <c r="M42" s="11"/>
+    </row>
+    <row r="43" spans="2:20">
+      <c r="B43" s="10"/>
+      <c r="M43" s="11"/>
+    </row>
+    <row r="44" spans="2:20">
+      <c r="B44" s="10"/>
+      <c r="M44" s="11"/>
+    </row>
+    <row r="45" spans="2:20">
+      <c r="B45" s="10"/>
+      <c r="M45" s="11"/>
+      <c r="T45"/>
+    </row>
+    <row r="46" spans="2:20">
+      <c r="B46" s="10"/>
+      <c r="M46" s="11"/>
+    </row>
+    <row r="47" spans="2:20">
+      <c r="B47" s="10"/>
+      <c r="M47" s="11"/>
+    </row>
+    <row r="48" spans="2:20">
+      <c r="B48" s="10"/>
+      <c r="M48" s="11"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="10"/>
+      <c r="M49" s="11"/>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="10"/>
+      <c r="M50" s="11"/>
+    </row>
+    <row r="51" spans="2:13" ht="15" thickBot="1">
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE492C5-4639-45A8-B570-91FCD4477D6C}">
   <dimension ref="B1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
@@ -2702,49 +3068,49 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1"/>
     <row r="2" spans="2:13" ht="37.15" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="2:13" ht="38.65" customHeight="1">
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="33"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="35"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="32">
         <f ca="1">TODAY()</f>
-        <v>45027</v>
-      </c>
-      <c r="M3" s="37"/>
+        <v>45043</v>
+      </c>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="8"/>
@@ -2804,14 +3170,14 @@
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="10"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="25"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="34"/>
       <c r="M15" s="11"/>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="10"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="M16" s="11"/>
     </row>
     <row r="17" spans="2:13">
@@ -2825,14 +3191,14 @@
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="10"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="26"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="35"/>
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="10"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="2:13">
@@ -2841,12 +3207,12 @@
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="10"/>
-      <c r="G22" s="28"/>
+      <c r="G22" s="37"/>
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="10"/>
-      <c r="G23" s="26"/>
+      <c r="G23" s="35"/>
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="2:13">
